--- a/Doc/burndown-chart.xlsx
+++ b/Doc/burndown-chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学\研一\敏捷软件开发\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489E86CC-1343-4B25-BE05-BE127EB3E18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F0DCB1-3803-4E76-92F5-F9A2CB359408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{8DE94FC4-89CF-4120-BF4E-C3A5A20C23A8}"/>
   </bookViews>
@@ -372,10 +372,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'BURNDOWN CHART'!$E$9:$E$19</c:f>
+              <c:f>'BURNDOWN CHART'!$E$9:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -408,6 +408,51 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,10 +492,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$9:$F$19</c:f>
+              <c:f>'BURNDOWN CHART'!$F$9:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -483,6 +528,51 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,8 +1763,8 @@
   </sheetPr>
   <dimension ref="B6:N34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1765,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ref="E11:F19" si="0">E10-C11</f>
+        <f t="shared" ref="E11:E19" si="0">E10-C11</f>
         <v>276</v>
       </c>
       <c r="F11" s="3">
@@ -1883,7 +1973,7 @@
         <v>210</v>
       </c>
       <c r="F17" s="3">
-        <f>F16-D17</f>
+        <f t="shared" ref="F17:F24" si="2">F16-D17</f>
         <v>240</v>
       </c>
     </row>
@@ -1902,7 +1992,7 @@
         <v>200</v>
       </c>
       <c r="F18" s="3">
-        <f>F17-D18</f>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
     </row>
@@ -1921,7 +2011,7 @@
         <v>190</v>
       </c>
       <c r="F19" s="3">
-        <f>F18-D19</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
     </row>
@@ -1932,13 +2022,15 @@
       <c r="C20" s="2">
         <v>6</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
       <c r="E20" s="3">
-        <f t="shared" ref="E20:E26" si="2">E19-C20</f>
+        <f t="shared" ref="E20:E26" si="3">E19-C20</f>
         <v>184</v>
       </c>
       <c r="F20" s="3">
-        <f>F19-D20</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
     </row>
@@ -1949,13 +2041,15 @@
       <c r="C21" s="2">
         <v>6</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
       <c r="E21" s="3">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="F21" s="3">
-        <f>F20-D21</f>
         <v>220</v>
       </c>
     </row>
@@ -1966,13 +2060,15 @@
       <c r="C22" s="2">
         <v>6</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
       <c r="E22" s="3">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="2"/>
-        <v>172</v>
-      </c>
-      <c r="F22" s="3">
-        <f>F21-D22</f>
         <v>220</v>
       </c>
     </row>
@@ -1983,13 +2079,15 @@
       <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
       <c r="E23" s="3">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>166</v>
-      </c>
-      <c r="F23" s="3">
-        <f>F22-D23</f>
         <v>220</v>
       </c>
     </row>
@@ -2000,9 +2098,11 @@
       <c r="C24" s="2">
         <v>6</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
       <c r="E24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="F24" s="3">
@@ -2017,12 +2117,17 @@
       <c r="C25" s="2">
         <v>16</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>16</v>
+      </c>
       <c r="E25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <f>F24-D25</f>
+        <v>204</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="2">
@@ -2031,12 +2136,17 @@
       <c r="C26" s="2">
         <v>16</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>16</v>
+      </c>
       <c r="E26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <f>F25-D26</f>
+        <v>188</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="2">
@@ -2045,12 +2155,17 @@
       <c r="C27" s="2">
         <v>16</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>16</v>
+      </c>
       <c r="E27" s="3">
-        <f t="shared" ref="E27:E34" si="3">E26-C27</f>
+        <f t="shared" ref="E27:E34" si="4">E26-C27</f>
         <v>112</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <f>F26-D27</f>
+        <v>172</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="2">
@@ -2059,12 +2174,17 @@
       <c r="C28" s="2">
         <v>16</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
       <c r="E28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <f>F27-D28</f>
+        <v>156</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="2">
@@ -2073,12 +2193,17 @@
       <c r="C29" s="2">
         <v>16</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>16</v>
+      </c>
       <c r="E29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3">
+        <f>F28-D29</f>
+        <v>140</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="2">
@@ -2087,12 +2212,17 @@
       <c r="C30" s="2">
         <v>16</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>20</v>
+      </c>
       <c r="E30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <f>F29-D30</f>
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="2">
@@ -2101,12 +2231,17 @@
       <c r="C31" s="2">
         <v>16</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>20</v>
+      </c>
       <c r="E31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3">
+        <f>F30-D31</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="2">
@@ -2115,12 +2250,17 @@
       <c r="C32" s="2">
         <v>16</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>30</v>
+      </c>
       <c r="E32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <f>F31-D32</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="2">
@@ -2129,26 +2269,36 @@
       <c r="C33" s="2">
         <v>16</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>30</v>
+      </c>
       <c r="E33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <f>F32-D33</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2">
         <v>16</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>40</v>
+      </c>
       <c r="E34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3">
+        <f>F33-D34</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
